--- a/10000消費券.xlsx
+++ b/10000消費券.xlsx
@@ -68,7 +68,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2022-05-12  To  2022-08-18</t>
+    <t>2022-04-12  To  2022-08-18</t>
   </si>
   <si>
     <t xml:space="preserve">Target User: </t>

--- a/10000消費券.xlsx
+++ b/10000消費券.xlsx
@@ -50,16 +50,16 @@
     <t>Total Cost:</t>
   </si>
   <si>
-    <t>李智</t>
-  </si>
-  <si>
-    <t>A1234567(8)</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>04/14/2022</t>
+    <t>招豐碩</t>
+  </si>
+  <si>
+    <t>D788888(5)</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>2022-04-25</t>
   </si>
   <si>
     <t>Total Applicant:</t>
@@ -68,7 +68,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2022-04-12  To  2022-08-18</t>
+    <t>2022-04-24  To  2022-08-18</t>
   </si>
   <si>
     <t xml:space="preserve">Target User: </t>
@@ -504,22 +504,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -529,21 +514,6 @@
       <c r="D5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="1">
-        <v>3</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="0" t="s">
@@ -551,38 +521,6 @@
       </c>
       <c r="D6" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="S6" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="I7" s="1">
-        <v>5</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="S7" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -645,22 +583,6 @@
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
